--- a/Code/output_find_element.xlsx
+++ b/Code/output_find_element.xlsx
@@ -6,7 +6,8 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="热点词条_不定时更新" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,11 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>词条名称</t>
   </si>
   <si>
+    <t>百科词条名</t>
+  </si>
+  <si>
     <t>是否被"百度百科"收录</t>
   </si>
   <si>
@@ -58,38 +62,141 @@
     <t>L-39</t>
   </si>
   <si>
+    <t>L-39教练机</t>
+  </si>
+  <si>
     <t>已收录</t>
   </si>
   <si>
     <t>未收录</t>
   </si>
   <si>
-    <t>http://baike.baidu.com/link?url=PT5MJheIip8K8sUPna6hybOAjks36eq_-aSJf_EzawyQQglKM5q2W2zAGdxI1-qiHIqtFlVjVyJZ7_2_K24Z1WLAiI89roGWGRiZG9rC2GmbYWpaned874az9q13Md9N</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>http://baike.baidu.com/link?url=axLZS7cF4fpFx0Z2MXeMfyT8K70HBZ4XQq2TIWHIUotHSc9Pij-iduekrEMGLeDkXNbnJvpNQSLyl7Y_UNobHHioDZmdaBuo9sV6Uno8vC_SltwRmx916kIfFb0SEnIF</t>
   </si>
   <si>
     <t>A380</t>
   </si>
   <si>
+    <t>相关热点</t>
+  </si>
+  <si>
+    <t>所属分类</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>当前状态</t>
+  </si>
+  <si>
+    <t>神舟十一号发射</t>
+  </si>
+  <si>
+    <t>航天器类型及型号</t>
+  </si>
+  <si>
+    <t>神舟十一号飞船</t>
+  </si>
+  <si>
+    <t>神舟十一号</t>
+  </si>
+  <si>
+    <t>2016年10月14日</t>
+  </si>
+  <si>
+    <t>长征二号F运载火箭</t>
+  </si>
+  <si>
+    <t>天舟一号货运飞船</t>
+  </si>
+  <si>
+    <t>天舟一号</t>
+  </si>
+  <si>
+    <t>航天飞行术语</t>
+  </si>
+  <si>
+    <t>在轨驻留</t>
+  </si>
+  <si>
+    <t>空间交会对接技术</t>
+  </si>
+  <si>
+    <t>航天器部件与设计术语</t>
+  </si>
+  <si>
+    <t>环境控制与生命保障系统</t>
+  </si>
+  <si>
+    <t>航天基地</t>
+  </si>
+  <si>
+    <t>酒泉卫星发射中心</t>
+  </si>
+  <si>
+    <t>中国酒泉卫星发射中心</t>
+  </si>
+  <si>
+    <t>文昌卫星发射中心</t>
+  </si>
+  <si>
+    <t>中国文昌卫星发射中心</t>
+  </si>
+  <si>
+    <t>内蒙古四子王旗航天着陆场</t>
+  </si>
+  <si>
+    <t>航天职务与人物</t>
+  </si>
+  <si>
+    <t>刘竹生</t>
+  </si>
+  <si>
+    <t>空中客车A380</t>
+  </si>
+  <si>
     <t>http://baike.baidu.com/view/85119.htm?fromtitle=A380&amp;fromid=725351&amp;type=search</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>76</t>
+    <t>http://baike.baidu.com/view/8808364.htm</t>
+  </si>
+  <si>
+    <t>http://baike.baidu.com/view/1224603.htm</t>
+  </si>
+  <si>
+    <t>http://baike.baidu.com/item/%E5%A4%A9%E8%88%9F%E4%B8%80%E5%8F%B7%E8%B4%A7%E8%BF%90%E9%A3%9E%E8%88%B9</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>http://baike.baidu.com/item/%E7%A9%BA%E9%97%B4%E4%BA%A4%E4%BC%9A%E5%AF%B9%E6%8E%A5%E6%8A%80%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>http://baike.baidu.com/view/5531585.htm</t>
+  </si>
+  <si>
+    <t>http://baike.baidu.com/view/25207.htm</t>
+  </si>
+  <si>
+    <t>http://baike.baidu.com/view/977096.htm</t>
+  </si>
+  <si>
+    <t>http://baike.baidu.com/item/%E5%86%85%E8%92%99%E5%8F%A4%E5%9B%9B%E5%AD%90%E7%8E%8B%E6%97%97%E8%88%AA%E5%A4%A9%E7%9D%80%E9%99%86%E5%9C%BA</t>
+  </si>
+  <si>
+    <t>http://baike.baidu.com/view/1095388.htm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="0.00_ " numFmtId="164"/>
-  </numFmts>
-  <fonts count="3">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
       <name val="DengXian"/>
       <family val="2"/>
@@ -112,6 +219,20 @@
       <sz val="9"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Helvetica"/>
+      <color indexed="8"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Helvetica"/>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Helvetica"/>
+      <sz val="10"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -121,7 +242,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -129,21 +250,208 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="5" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="5" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="5" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -416,22 +724,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -464,90 +772,694 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="n">
+        <v>143</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J2" t="n">
+        <v>34</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2868</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="n">
+        <v>614</v>
+      </c>
+      <c r="G3" t="n">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H3" t="n">
+        <v>18</v>
+      </c>
+      <c r="I3" t="n">
+        <v>22</v>
+      </c>
+      <c r="J3" t="n">
+        <v>208</v>
+      </c>
+      <c r="K3" t="n">
+        <v>18613</v>
+      </c>
+      <c r="L3" t="n">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="n">
-        <v>143</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I2" t="n">
-        <v>34</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2868</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="n">
-        <v>614</v>
-      </c>
-      <c r="F3" t="n">
-        <v>13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>18</v>
-      </c>
-      <c r="H3" t="n">
-        <v>22</v>
-      </c>
-      <c r="I3" t="n">
-        <v>208</v>
-      </c>
-      <c r="J3" t="n">
-        <v>18613</v>
-      </c>
-      <c r="K3" t="n">
-        <v>15</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
+      <c r="M3" t="n">
+        <v>7</v>
+      </c>
+      <c r="N3" t="n">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+      <selection activeCell="A1" pane="topRight" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection activeCell="C20" pane="bottomRight" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="16.33203125" defaultRowHeight="18" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="11" width="16.33203125"/>
+    <col customWidth="1" max="2" min="2" style="11" width="20.83203125"/>
+    <col customWidth="1" max="3" min="3" style="11" width="23.5"/>
+    <col customWidth="1" max="4" min="4" style="11" width="20.83203125"/>
+    <col customWidth="1" max="6" min="5" style="11" width="16.33203125"/>
+    <col customWidth="1" max="256" min="7" style="11" width="16.33203125"/>
+    <col customWidth="1" max="16384" min="257" style="11" width="16.33203125"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23.5" r="1" spans="1:19">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23.5" r="2" spans="1:19">
+      <c r="A2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="n">
+        <v>355</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>25</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2441</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>11</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23.5" r="3" spans="1:19">
+      <c r="C3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="8" t="n"/>
+      <c r="F3" s="8" t="n"/>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="n">
+        <v>372</v>
+      </c>
+      <c r="L3" t="n">
+        <v>15</v>
+      </c>
+      <c r="M3" t="n">
+        <v>11</v>
+      </c>
+      <c r="N3" t="n">
+        <v>14</v>
+      </c>
+      <c r="O3" t="n">
+        <v>222</v>
+      </c>
+      <c r="P3" t="n">
+        <v>9005</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23.5" r="4" spans="1:19">
+      <c r="C4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="8" t="n"/>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="n">
+        <v>529</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>17</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1704</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23.5" r="5" spans="1:19">
+      <c r="B5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="9" t="n"/>
+      <c r="F5" s="8" t="n"/>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23.5" r="6" spans="1:19">
+      <c r="C6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="8" t="n"/>
+      <c r="F6" s="8" t="n"/>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23.5" r="7" spans="1:19">
+      <c r="B7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="8" t="n"/>
+      <c r="F7" s="8" t="n"/>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" t="n">
+        <v>45</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>29</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1131</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23.5" r="8" spans="1:19">
+      <c r="B8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="8" t="n"/>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" t="n">
+        <v>275</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8</v>
+      </c>
+      <c r="M8" t="n">
+        <v>12</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>83</v>
+      </c>
+      <c r="P8" t="n">
+        <v>6279</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>10</v>
+      </c>
+      <c r="S8" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23.5" r="9" spans="1:19">
+      <c r="C9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="8" t="n"/>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" t="n">
+        <v>318</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8</v>
+      </c>
+      <c r="M9" t="n">
+        <v>8</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>47</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5915</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>10</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23.5" r="10" spans="1:19">
+      <c r="C10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="8" t="n"/>
+      <c r="F10" s="8" t="n"/>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" t="n">
+        <v>70</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6</v>
+      </c>
+      <c r="P10" t="n">
+        <v>880</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23.5" r="11" spans="1:19">
+      <c r="B11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="8" t="n"/>
+      <c r="F11" s="8" t="n"/>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" t="n">
+        <v>414</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>27</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2524</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B10"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.25" header="0.25" left="1" right="1" top="1"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Code/output_find_element.xlsx
+++ b/Code/output_find_element.xlsx
@@ -71,7 +71,7 @@
     <t>未收录</t>
   </si>
   <si>
-    <t>http://baike.baidu.com/link?url=axLZS7cF4fpFx0Z2MXeMfyT8K70HBZ4XQq2TIWHIUotHSc9Pij-iduekrEMGLeDkXNbnJvpNQSLyl7Y_UNobHHioDZmdaBuo9sV6Uno8vC_SltwRmx916kIfFb0SEnIF</t>
+    <t>http://baike.baidu.com/link?url=cmOIB0f482XuodJQAPNroVcQbjsSwKJEiI2XYP2kIYxAp3s5PZ3Oo-pKuurCnarbNUgjKtnbg6lSUkHxrztBFr1vmfxrnqlZCXaA0YhpatQ0NnVKwn0z7UAMp2iHJJCK</t>
   </si>
   <si>
     <t>A380</t>
@@ -161,7 +161,7 @@
     <t>http://baike.baidu.com/view/85119.htm?fromtitle=A380&amp;fromid=725351&amp;type=search</t>
   </si>
   <si>
-    <t>http://baike.baidu.com/view/8808364.htm</t>
+    <t>http://baike.baidu.com/item/%E7%A5%9E%E8%88%9F%E5%8D%81%E4%B8%80%E5%8F%B7%E9%A3%9E%E8%88%B9</t>
   </si>
   <si>
     <t>http://baike.baidu.com/view/1224603.htm</t>
@@ -170,7 +170,7 @@
     <t>http://baike.baidu.com/item/%E5%A4%A9%E8%88%9F%E4%B8%80%E5%8F%B7%E8%B4%A7%E8%BF%90%E9%A3%9E%E8%88%B9</t>
   </si>
   <si>
-    <t>None</t>
+    <t>http://baike.baidu.com/item/%E5%9C%A8%E8%BD%A8%E9%A9%BB%E7%95%99</t>
   </si>
   <si>
     <t>http://baike.baidu.com/item/%E7%A9%BA%E9%97%B4%E4%BA%A4%E4%BC%9A%E5%AF%B9%E6%8E%A5%E6%8A%80%E6%9C%AF</t>
@@ -978,37 +978,37 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
         <v>48</v>
       </c>
       <c r="K2" t="n">
-        <v>355</v>
+        <v>273</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="P2" t="n">
-        <v>2441</v>
+        <v>3102</v>
       </c>
       <c r="Q2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row customHeight="1" ht="23.5" r="3" spans="1:19">
@@ -1024,37 +1024,37 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
         <v>49</v>
       </c>
       <c r="K3" t="n">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="L3" t="n">
         <v>15</v>
       </c>
       <c r="M3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="P3" t="n">
-        <v>9005</v>
+        <v>5912</v>
       </c>
       <c r="Q3" t="n">
+        <v>13</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
         <v>6</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="23.5" r="4" spans="1:19">
@@ -1072,37 +1072,37 @@
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
         <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>529</v>
+        <v>97</v>
       </c>
       <c r="L4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" t="n">
         <v>5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
       </c>
       <c r="N4" t="n">
         <v>-1</v>
       </c>
       <c r="O4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" t="n">
-        <v>1704</v>
+        <v>1562</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
         <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row customHeight="1" ht="23.5" r="5" spans="1:19">
@@ -1115,43 +1115,43 @@
       <c r="D5" s="9" t="n"/>
       <c r="F5" s="8" t="n"/>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-1</v>
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
       </c>
       <c r="J5" t="s">
         <v>51</v>
       </c>
       <c r="K5" t="n">
-        <v>-1</v>
+        <v>141</v>
       </c>
       <c r="L5" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="N5" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="P5" t="n">
-        <v>-1</v>
+        <v>1882</v>
       </c>
       <c r="Q5" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="23.5" r="6" spans="1:19">
@@ -1216,16 +1216,16 @@
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
         <v>53</v>
       </c>
       <c r="K7" t="n">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>6</v>
@@ -1234,19 +1234,19 @@
         <v>-1</v>
       </c>
       <c r="O7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P7" t="n">
-        <v>1131</v>
+        <v>1469</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="23.5" r="8" spans="1:19">
@@ -1267,37 +1267,37 @@
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
         <v>54</v>
       </c>
       <c r="K8" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L8" t="n">
         <v>8</v>
       </c>
       <c r="M8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="P8" t="n">
-        <v>6279</v>
+        <v>5228</v>
       </c>
       <c r="Q8" t="n">
         <v>4</v>
       </c>
       <c r="R8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S8" t="n">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row customHeight="1" ht="23.5" r="9" spans="1:19">
@@ -1315,37 +1315,37 @@
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
         <v>55</v>
       </c>
       <c r="K9" t="n">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L9" t="n">
         <v>8</v>
       </c>
       <c r="M9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="P9" t="n">
-        <v>5915</v>
+        <v>3605</v>
       </c>
       <c r="Q9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R9" t="n">
         <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row customHeight="1" ht="23.5" r="10" spans="1:19">
@@ -1361,31 +1361,31 @@
         <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
         <v>56</v>
       </c>
       <c r="K10" t="n">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
         <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="P10" t="n">
-        <v>880</v>
+        <v>1494</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R10" t="n">
         <v>1</v>
@@ -1410,37 +1410,37 @@
         <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
         <v>57</v>
       </c>
       <c r="K11" t="n">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L11" t="n">
         <v>8</v>
       </c>
       <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="n">
         <v>4</v>
       </c>
-      <c r="N11" t="n">
-        <v>-1</v>
-      </c>
       <c r="O11" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="P11" t="n">
-        <v>2524</v>
+        <v>2111</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
         <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
